--- a/docs/테스트문서.xlsx
+++ b/docs/테스트문서.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20386"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD992BF5-06A4-46D6-ACA8-F06DA7460BC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85E61DE7-ABB7-46F7-B1B0-4CFC67662A02}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,18 +16,6 @@
     <definedName name="버전_기본">IF(COUNTA(#REF!)-1&lt;#REF!,OFFSET(#REF!,0,0,1,COUNTA(#REF!)-1),OFFSET(#REF!,0,COUNTA(#REF!)-#REF!-1,1,#REF!))</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -761,7 +749,7 @@
       <pane xSplit="5" ySplit="8" topLeftCell="F9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="O23" sqref="O23"/>
+      <selection pane="bottomRight" activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
